--- a/Data/Transitions/18961905Translation.xlsx
+++ b/Data/Transitions/18961905Translation.xlsx
@@ -262,7 +262,7 @@
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
+    <t>{146.0: 0.7349950571953114}</t>
   </si>
   <si>
     <t>{147.0: 1.0}</t>
@@ -448,6 +448,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -502,7 +505,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8162546562817474}</t>
+    <t>{264.0: 0.8178827951936631}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -643,9 +646,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -772,7 +772,7 @@
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 1.0, 595.0: 0.09431007482164608}</t>
+    <t>{476.0: 1.0, 595.0: 0.09373919059149083}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{593.0: 1.0}</t>
   </si>
   <si>
-    <t>{595.0: 0.9056899251783539}</t>
+    <t>{595.0: 0.9062608094085092}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1198,7 +1198,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1228,7 +1228,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.7593283582089553}</t>
+    <t>{757.0: 0.7565118912797282}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1351,7 +1351,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.18374534371825263}</t>
+    <t>{264.0: 0.18211720480633684}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
+    <t>{146.0: 0.2650049428046886}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
@@ -1567,7 +1567,7 @@
     <t>{999.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009012, 762.0: 0.05790113999909882}</t>
+    <t>{141.0: 0.942183768194313, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -1579,10 +1579,10 @@
     <t>{180.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.8052299368800722, 171.0: 0.19477006311992787}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.4878850102669405, 681.0: 0.5121149897330596}</t>
+    <t>{184.0: 0.8050541516245487, 171.0: 0.19494584837545126}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.48788501026694037, 681.0: 0.5121149897330596}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -1597,7 +1597,7 @@
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352774, 595.0: 0.1541963015647226}</t>
+    <t>{476.0: 0.8459132906894101, 595.0: 0.1540867093105899}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -1624,7 +1624,7 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{973.0: 0.9005355776587606, 494.0: 0.09946442234123948}</t>
+    <t>{973.0: 0.9007633587786258, 494.0: 0.09923664122137403}</t>
   </si>
 </sst>
 </file>
@@ -3552,7 +3552,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3563,7 +3563,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3618,7 +3618,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3651,7 +3651,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3750,51 +3750,51 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>525</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>525</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>526</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3816,7 +3816,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3838,7 +3838,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3849,7 +3849,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3860,7 +3860,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3948,7 +3948,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4091,7 +4091,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
